--- a/with logs for unschedule with saturday sunday/excel_schedules/section_2B_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/section_2B_genetic_schedule.xlsx
@@ -518,6 +518,13 @@
           <t>8:00 AM - 8:30 AM</t>
         </is>
       </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>EN 311 - Engineering Ethics
+2B
+Room 147</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="50" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
@@ -525,13 +532,7 @@
           <t>8:30 AM - 9:00 AM</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>MA 317 - Engineering Mathematics
-2B
-Room 141</t>
-        </is>
-      </c>
+      <c r="B3" s="2" t="n"/>
     </row>
     <row r="4" ht="50" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -545,14 +546,6 @@
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>9:30 AM - 10:00 AM</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>CAD 318 - Computer-Aided Design
-2B
-Room 32</t>
         </is>
       </c>
     </row>
@@ -569,7 +562,6 @@
 Room 232</t>
         </is>
       </c>
-      <c r="F6" s="2" t="n"/>
     </row>
     <row r="7" ht="50" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -578,7 +570,6 @@
         </is>
       </c>
       <c r="B7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
     </row>
     <row r="8" ht="50" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -593,7 +584,6 @@
 Room 143</t>
         </is>
       </c>
-      <c r="F8" s="2" t="n"/>
     </row>
     <row r="9" ht="50" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -653,15 +643,7 @@
           <t>2:30 PM - 3:00 PM</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="50" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>3:00 PM - 3:30 PM</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>TH 313 - Thermodynamics
 2B
@@ -669,6 +651,14 @@
         </is>
       </c>
     </row>
+    <row r="16" ht="50" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>3:00 PM - 3:30 PM</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n"/>
+    </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
@@ -745,13 +735,6 @@
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>CAD 318 - Computer-Aided Design
-2B
-Room 140</t>
-        </is>
-      </c>
       <c r="E24" s="2" t="n"/>
     </row>
     <row r="25" ht="50" customHeight="1">
@@ -760,7 +743,13 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n"/>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>MS 312 - Materials Science
+2B
+Room 146</t>
+        </is>
+      </c>
       <c r="E25" s="2" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
@@ -769,6 +758,7 @@
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
+      <c r="B26" s="2" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -779,16 +769,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="E21:E25"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B13:B15"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/with logs for unschedule with saturday sunday/excel_schedules/section_2B_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/section_2B_genetic_schedule.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -37,6 +37,60 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD700"/>
+        <bgColor rgb="00FFD700"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA07A"/>
+        <bgColor rgb="00FFA07A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0020B2AA"/>
+        <bgColor rgb="0020B2AA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009370DB"/>
+        <bgColor rgb="009370DB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F08080"/>
+        <bgColor rgb="00F08080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0FFFF"/>
+        <bgColor rgb="00E0FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -79,12 +133,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,11 +599,36 @@
           <t>8:00 AM - 8:30 AM</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>EN 311 - Engineering Ethics
-2B
-Room 147</t>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>IS 214 - Organizational &amp; Management Concepts
+2B
+Room 305
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>B1 IS 213 - IT Infrastructure &amp; Network Technologies
+2B
+Room 310
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>B2 ITE 215 - Installation of Hardware and Software
+2B
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>C2 ITE 215 - Installation of Hardware and Software
+2B
+Room 310
+Emp: 3</t>
         </is>
       </c>
     </row>
@@ -532,7 +638,10 @@
           <t>8:30 AM - 9:00 AM</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="5" t="n"/>
+      <c r="F3" s="6" t="n"/>
     </row>
     <row r="4" ht="50" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -540,7 +649,10 @@
           <t>9:00 AM - 9:30 AM</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="5" t="n"/>
+      <c r="F4" s="6" t="n"/>
     </row>
     <row r="5" ht="50" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -548,6 +660,30 @@
           <t>9:30 AM - 10:00 AM</t>
         </is>
       </c>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>B2 ITE 211 - Data Structures and Algorithm
+2B
+Room 208
+Emp: 9</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>B1 ITE 215 - Installation of Hardware and Software
+2B
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>B1 ITE 211 - Data Structures and Algorithm
+2B
+Room 208
+Emp: 9</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="50" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -555,13 +691,17 @@
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>MS 312 - Materials Science
-2B
-Room 232</t>
-        </is>
-      </c>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="8" t="n"/>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>B1 IS 213 - IT Infrastructure &amp; Network Technologies
+2B
+Room 303
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="n"/>
     </row>
     <row r="7" ht="50" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -569,7 +709,10 @@
           <t>10:30 AM - 11:00 AM</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="8" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="9" t="n"/>
     </row>
     <row r="8" ht="50" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -577,13 +720,7 @@
           <t>11:00 AM - 11:30 AM</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>EN 315 - Engineering Drawing
-2B
-Room 143</t>
-        </is>
-      </c>
+      <c r="D8" s="4" t="n"/>
     </row>
     <row r="9" ht="50" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -591,7 +728,7 @@
           <t>11:30 AM - 12:00 PM</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n"/>
+      <c r="D9" s="4" t="n"/>
     </row>
     <row r="10" ht="50" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -613,11 +750,36 @@
           <t>1:00 PM - 1:30 PM</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>ME 314 - Mechanics
-2B
-Room 144</t>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>B1 ITE 215 - Installation of Hardware and Software
+2B
+Room 208
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="inlineStr">
+        <is>
+          <t>B1 ITE 211 - Data Structures and Algorithm
+2B
+Room 208
+Emp: 9</t>
+        </is>
+      </c>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>B2 IS 213 - IT Infrastructure &amp; Network Technologies
+2B
+Room 208
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr">
+        <is>
+          <t>B2 ITE 211 - Data Structures and Algorithm
+2B
+Room 310
+Emp: 9</t>
         </is>
       </c>
     </row>
@@ -627,7 +789,10 @@
           <t>1:30 PM - 2:00 PM</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n"/>
+      <c r="B13" s="8" t="n"/>
+      <c r="C13" s="9" t="n"/>
+      <c r="E13" s="10" t="n"/>
+      <c r="F13" s="7" t="n"/>
     </row>
     <row r="14" ht="50" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -635,7 +800,10 @@
           <t>2:00 PM - 2:30 PM</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n"/>
+      <c r="B14" s="8" t="n"/>
+      <c r="C14" s="9" t="n"/>
+      <c r="E14" s="10" t="n"/>
+      <c r="F14" s="7" t="n"/>
     </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -643,11 +811,20 @@
           <t>2:30 PM - 3:00 PM</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>TH 313 - Thermodynamics
-2B
-Room 145</t>
+      <c r="B15" s="10" t="inlineStr">
+        <is>
+          <t>B2 IS 213 - IT Infrastructure &amp; Network Technologies
+2B
+Room 310
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>IS 214 - Organizational &amp; Management Concepts
+2B
+Room 303
+Emp: 1</t>
         </is>
       </c>
     </row>
@@ -657,7 +834,24 @@
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n"/>
+      <c r="B16" s="10" t="n"/>
+      <c r="C16" s="11" t="inlineStr">
+        <is>
+          <t>IS 212 - Professional Issues in Information System
+2B
+Room 303
+Emp: 4</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>B2 IS 213 - IT Infrastructure &amp; Network Technologies
+2B
+Room 304
+Emp: 5</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -665,7 +859,10 @@
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
+      <c r="B17" s="10" t="n"/>
+      <c r="C17" s="11" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="10" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -673,7 +870,8 @@
           <t>4:00 PM - 4:30 PM</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
+      <c r="C18" s="11" t="n"/>
+      <c r="F18" s="10" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -681,7 +879,7 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
+      <c r="F19" s="10" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -696,18 +894,44 @@
           <t>5:30 PM - 6:00 PM</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>ME 314 - Mechanics
-2B
-Room 231</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>EL 316 - Electronics
-2B
-Room 73</t>
+      <c r="B21" s="11" t="inlineStr">
+        <is>
+          <t>IS 212 - Professional Issues in Information System
+2B
+Room 304
+Emp: 4</t>
+        </is>
+      </c>
+      <c r="C21" s="9" t="inlineStr">
+        <is>
+          <t>B1 ITE 211 - Data Structures and Algorithm
+2B
+Room 304
+Emp: 9</t>
+        </is>
+      </c>
+      <c r="D21" s="7" t="inlineStr">
+        <is>
+          <t>B2 ITE 211 - Data Structures and Algorithm
+2B
+Room 305
+Emp: 9</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>B1 ITE 215 - Installation of Hardware and Software
+2B
+Room 304
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>B1 IS 213 - IT Infrastructure &amp; Network Technologies
+2B
+Room 310
+Emp: 2</t>
         </is>
       </c>
     </row>
@@ -717,8 +941,11 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
+      <c r="B22" s="11" t="n"/>
+      <c r="C22" s="9" t="n"/>
+      <c r="D22" s="7" t="n"/>
+      <c r="E22" s="8" t="n"/>
+      <c r="F22" s="4" t="n"/>
     </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -726,8 +953,11 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
+      <c r="B23" s="11" t="n"/>
+      <c r="C23" s="9" t="n"/>
+      <c r="D23" s="7" t="n"/>
+      <c r="E23" s="8" t="n"/>
+      <c r="F23" s="4" t="n"/>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -735,7 +965,17 @@
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
-      <c r="E24" s="2" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>B2 ITE 215 - Installation of Hardware and Software
+2B
+Room 208
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="C24" s="9" t="n"/>
+      <c r="D24" s="7" t="n"/>
+      <c r="E24" s="8" t="n"/>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -743,14 +983,7 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>MS 312 - Materials Science
-2B
-Room 146</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="n"/>
+      <c r="B25" s="5" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -758,7 +991,7 @@
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n"/>
+      <c r="B26" s="5" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -768,17 +1001,29 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E21:E25"/>
+  <mergeCells count="22">
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="C21:C24"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="E5:E7"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
